--- a/data/raw/JOHNPAUL_20250708_cycle2.xlsx
+++ b/data/raw/JOHNPAUL_20250708_cycle2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SID\Desktop\July 08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnf\Desktop\D3QN\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947C13D8-260A-4672-965B-FA7C669A8333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3EB8E5-6EF5-475E-818A-95CCFBAC54FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="17085" windowHeight="15180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Annotations" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -570,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="F2">
         <f>VLOOKUP(C2,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -650,11 +655,11 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J31" si="2">IF(E2=0,0,G2*3600/E2)</f>
-        <v>1060.7142857142858</v>
+        <v>198</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K31" si="3">IF(E2=0,0,IF(D2="",0,D2*3600/E2))</f>
-        <v>707.14285714285711</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -671,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="F3">
         <f>VLOOKUP(C3,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -691,11 +696,11 @@
       </c>
       <c r="J3">
         <f t="shared" si="2"/>
-        <v>308.57142857142856</v>
+        <v>57.6</v>
       </c>
       <c r="K3">
         <f t="shared" si="3"/>
-        <v>257.14285714285717</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -712,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="F4">
         <f>VLOOKUP(C4,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -753,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="F5">
         <f>VLOOKUP(C5,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -794,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="F6">
         <f>VLOOKUP(C6,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -835,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="F7">
         <f>VLOOKUP(C7,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -855,11 +860,11 @@
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>128.57142857142858</v>
+        <v>24</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
-        <v>64.285714285714292</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -876,7 +881,7 @@
         <v>13</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="F8">
         <f>VLOOKUP(C8,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -896,11 +901,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
-        <v>1755</v>
+        <v>234</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
-        <v>1170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -917,7 +922,7 @@
         <v>13</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="F9">
         <f>VLOOKUP(C9,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -937,11 +942,11 @@
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
-        <v>1404</v>
+        <v>187.2</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
-        <v>1170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -958,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="F10">
         <f>VLOOKUP(C10,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -999,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="F11">
         <f>VLOOKUP(C11,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1040,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="F12">
         <f>VLOOKUP(C12,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1060,11 +1065,11 @@
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1081,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="F13">
         <f>VLOOKUP(C13,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1122,7 +1127,7 @@
         <v>10</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F14">
         <f>VLOOKUP(C14,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1142,11 +1147,11 @@
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>1080</v>
+        <v>180</v>
       </c>
       <c r="K14">
         <f t="shared" si="3"/>
-        <v>720</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1163,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F15">
         <f>VLOOKUP(C15,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1204,7 +1209,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F16">
         <f>VLOOKUP(C16,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1224,11 +1229,11 @@
       </c>
       <c r="J16">
         <f t="shared" si="2"/>
-        <v>2160</v>
+        <v>360</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1245,7 +1250,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F17">
         <f>VLOOKUP(C17,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1265,11 +1270,11 @@
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>8640</v>
+        <v>1440</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
-        <v>288</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1286,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F18">
         <f>VLOOKUP(C18,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1327,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F19">
         <f>VLOOKUP(C19,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1368,7 +1373,7 @@
         <v>36</v>
       </c>
       <c r="E20">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="F20">
         <f>VLOOKUP(C20,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1388,11 +1393,11 @@
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>2557.8947368421054</v>
+        <v>648</v>
       </c>
       <c r="K20">
         <f t="shared" si="3"/>
-        <v>1705.2631578947369</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1409,7 +1414,7 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="F21">
         <f>VLOOKUP(C21,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1429,11 +1434,11 @@
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
-        <v>568.42105263157896</v>
+        <v>144</v>
       </c>
       <c r="K21">
         <f t="shared" si="3"/>
-        <v>473.68421052631578</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1450,7 +1455,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="F22">
         <f>VLOOKUP(C22,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1470,11 +1475,11 @@
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>4263.1578947368425</v>
+        <v>1080</v>
       </c>
       <c r="K22">
         <f t="shared" si="3"/>
-        <v>426.31578947368422</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1491,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="F23">
         <f>VLOOKUP(C23,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1532,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="F24">
         <f>VLOOKUP(C24,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1552,11 +1557,11 @@
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>142.10526315789474</v>
+        <v>36</v>
       </c>
       <c r="K24">
         <f t="shared" si="3"/>
-        <v>142.10526315789474</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1573,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="F25">
         <f>VLOOKUP(C25,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1614,7 +1619,7 @@
         <v>50</v>
       </c>
       <c r="E26">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="F26">
         <f>VLOOKUP(C26,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1634,11 +1639,11 @@
       </c>
       <c r="J26">
         <f t="shared" si="2"/>
-        <v>3375</v>
+        <v>900</v>
       </c>
       <c r="K26">
         <f t="shared" si="3"/>
-        <v>2250</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1655,7 +1660,7 @@
         <v>45</v>
       </c>
       <c r="E27">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="F27">
         <f>VLOOKUP(C27,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1675,11 +1680,11 @@
       </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>2430</v>
+        <v>648</v>
       </c>
       <c r="K27">
         <f t="shared" si="3"/>
-        <v>2025</v>
+        <v>540</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1696,7 +1701,7 @@
         <v>7</v>
       </c>
       <c r="E28">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="F28">
         <f>VLOOKUP(C28,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1716,11 +1721,11 @@
       </c>
       <c r="J28">
         <f t="shared" si="2"/>
-        <v>3150</v>
+        <v>840</v>
       </c>
       <c r="K28">
         <f t="shared" si="3"/>
-        <v>315</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1737,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="F29">
         <f>VLOOKUP(C29,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1757,11 +1762,11 @@
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>4050</v>
+        <v>1080</v>
       </c>
       <c r="K29">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1778,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="F30">
         <f>VLOOKUP(C30,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1798,11 +1803,11 @@
       </c>
       <c r="J30">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="K30">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1819,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="F31">
         <f>VLOOKUP(C31,Vehicle_Params!$A:$C,3,FALSE)</f>
@@ -1957,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,7 +2016,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="D2">
         <f>SUMIFS(Raw_Annotations!$D:$D,Raw_Annotations!$A:$A,$A2,Raw_Annotations!$B:$B,$B2)</f>
@@ -2023,7 +2028,7 @@
       </c>
       <c r="F2">
         <f>IF(C2=0,0,D2*3600/C2)</f>
-        <v>1028.5714285714287</v>
+        <v>192</v>
       </c>
       <c r="G2">
         <f>SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A2,Raw_Annotations!$B:$B,$B2)</f>
@@ -2031,7 +2036,7 @@
       </c>
       <c r="H2">
         <f>IF(C2=0,0,G2*3600/C2)</f>
-        <v>1497.8571428571429</v>
+        <v>279.60000000000002</v>
       </c>
       <c r="I2">
         <f>SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A2,Raw_Annotations!$B:$B,$B2,Raw_Annotations!$C:$C,"Jeepney")+SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A2,Raw_Annotations!$B:$B,$B2,Raw_Annotations!$C:$C,"Bus")</f>
@@ -2054,7 +2059,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="D3">
         <f>SUMIFS(Raw_Annotations!$D:$D,Raw_Annotations!$A:$A,$A3,Raw_Annotations!$B:$B,$B3)</f>
@@ -2066,7 +2071,7 @@
       </c>
       <c r="F3">
         <f>IF(C3=0,0,D3*3600/C3)</f>
-        <v>1735.7142857142858</v>
+        <v>324</v>
       </c>
       <c r="G3">
         <f>SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A3,Raw_Annotations!$B:$B,$B3)</f>
@@ -2074,7 +2079,7 @@
       </c>
       <c r="H3">
         <f>IF(C3=0,0,G3*3600/C3)</f>
-        <v>2320.7142857142858</v>
+        <v>433.2</v>
       </c>
       <c r="I3">
         <f>SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A3,Raw_Annotations!$B:$B,$B3,Raw_Annotations!$C:$C,"Jeepney")+SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A3,Raw_Annotations!$B:$B,$B3,Raw_Annotations!$C:$C,"Bus")</f>
@@ -2097,7 +2102,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="D4">
         <f>SUMIFS(Raw_Annotations!$D:$D,Raw_Annotations!$A:$A,$A4,Raw_Annotations!$B:$B,$B4)</f>
@@ -2109,7 +2114,7 @@
       </c>
       <c r="F4">
         <f>IF(C4=0,0,D4*3600/C4)</f>
-        <v>1700</v>
+        <v>204</v>
       </c>
       <c r="G4">
         <f>SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A4,Raw_Annotations!$B:$B,$B4)</f>
@@ -2117,7 +2122,7 @@
       </c>
       <c r="H4">
         <f>IF(C4=0,0,G4*3600/C4)</f>
-        <v>16500</v>
+        <v>1980</v>
       </c>
       <c r="I4">
         <f>SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A4,Raw_Annotations!$B:$B,$B4,Raw_Annotations!$C:$C,"Jeepney")+SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A4,Raw_Annotations!$B:$B,$B4,Raw_Annotations!$C:$C,"Bus")</f>
@@ -2140,7 +2145,7 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="D5">
         <f>SUMIFS(Raw_Annotations!$D:$D,Raw_Annotations!$A:$A,$A5,Raw_Annotations!$B:$B,$B5)</f>
@@ -2152,7 +2157,7 @@
       </c>
       <c r="F5">
         <f>IF(C5=0,0,D5*3600/C5)</f>
-        <v>2747.3684210526317</v>
+        <v>696</v>
       </c>
       <c r="G5">
         <f>SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A5,Raw_Annotations!$B:$B,$B5)</f>
@@ -2160,7 +2165,7 @@
       </c>
       <c r="H5">
         <f>IF(C5=0,0,G5*3600/C5)</f>
-        <v>7531.5789473684208</v>
+        <v>1908</v>
       </c>
       <c r="I5">
         <f>SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A5,Raw_Annotations!$B:$B,$B5,Raw_Annotations!$C:$C,"Jeepney")+SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A5,Raw_Annotations!$B:$B,$B5,Raw_Annotations!$C:$C,"Bus")</f>
@@ -2183,7 +2188,7 @@
         <v>38</v>
       </c>
       <c r="C6">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="D6">
         <f>SUMIFS(Raw_Annotations!$D:$D,Raw_Annotations!$A:$A,$A6,Raw_Annotations!$B:$B,$B6)</f>
@@ -2195,7 +2200,7 @@
       </c>
       <c r="F6">
         <f>IF(C6=0,0,D6*3600/C6)</f>
-        <v>4697.5609756097565</v>
+        <v>1284</v>
       </c>
       <c r="G6">
         <f>SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A6,Raw_Annotations!$B:$B,$B6)</f>
@@ -2203,7 +2208,7 @@
       </c>
       <c r="H6">
         <f>IF(C6=0,0,G6*3600/C6)</f>
-        <v>12775.609756097561</v>
+        <v>3492</v>
       </c>
       <c r="I6">
         <f>SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A6,Raw_Annotations!$B:$B,$B6,Raw_Annotations!$C:$C,"Jeepney")+SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A6,Raw_Annotations!$B:$B,$B6,Raw_Annotations!$C:$C,"Bus")</f>
